--- a/biology/Médecine/Hôpital_San_Giovanni–Addolorata/Hôpital_San_Giovanni–Addolorata.xlsx
+++ b/biology/Médecine/Hôpital_San_Giovanni–Addolorata/Hôpital_San_Giovanni–Addolorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Giovanni%E2%80%93Addolorata</t>
+          <t>Hôpital_San_Giovanni–Addolorata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital San Giovanni–Addolorata (nom officiel en italien Azienda Ospedaliera San Giovanni Addolorata), est un hôpital de Rome situé dans le quartier Monti derrière la basilique Saint-Jean-de-Latran.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Giovanni%E2%80%93Addolorata</t>
+          <t>Hôpital_San_Giovanni–Addolorata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier hôpital est construit en 575 sur les ruines de la Domus des Valerii, une famille romaine richissime. Cette propriété est mise à la vente en 404 par Mélanie la jeune et Valérien Pinien mais, trop vaste, elle est vendue en 410 après le sac de Rome.
-Cet hôpital est à l'origine un hospice pour pauvres nommé Ospedale dell'Addolorata[1]
+Cet hôpital est à l'origine un hospice pour pauvres nommé Ospedale dell'Addolorata
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Giovanni%E2%80%93Addolorata</t>
+          <t>Hôpital_San_Giovanni–Addolorata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital San Giovanni–Addolorata est accessible par la ligne A du métro de Rome à la station San Giovanni.
 </t>
